--- a/Assets/Resources/Configs/HeroConfig.xlsx
+++ b/Assets/Resources/Configs/HeroConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464D018B-AF7B-460B-9183-842FFC36E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88D0DCE-EE11-46BF-95C4-5C8FAEE66708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_baseMaxHealthPoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +112,10 @@
   </si>
   <si>
     <t>Ryze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heroName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +447,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -469,18 +469,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>380</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>230</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>50</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.66800000000000004</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>30</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>5.5</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>6.25</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>550</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>330</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>100</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>80</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>50</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.02</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>3.5</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.6</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.6</v>

--- a/Assets/Resources/Configs/HeroConfig.xlsx
+++ b/Assets/Resources/Configs/HeroConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88D0DCE-EE11-46BF-95C4-5C8FAEE66708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B94DF-A4FD-4597-887F-A55C260B75AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,65 @@
   </si>
   <si>
     <t>heroName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_passiveSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_ESkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_WSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_QSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_RSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EssenceTheft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrbOfDeception</t>
+  </si>
+  <si>
+    <t>FoxFire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpiritRush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArcaneMastery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunePrison</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellFlux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RealmWarp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,16 +503,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.08203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="16384" width="20.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -687,6 +746,61 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Configs/HeroConfig.xlsx
+++ b/Assets/Resources/Configs/HeroConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B94DF-A4FD-4597-887F-A55C260B75AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AA5366-2B48-426B-A48B-56BBAD4A6A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>RealmWarp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_attackWindUp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -542,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>380</v>
+        <v>590</v>
       </c>
       <c r="C3" s="1">
-        <v>360</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -553,10 +557,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>230</v>
+        <v>418</v>
       </c>
       <c r="C4" s="1">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -564,10 +568,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -578,7 +582,7 @@
         <v>0.66800000000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>0.625</v>
+        <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -586,10 +590,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -600,7 +604,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -608,10 +612,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="C9" s="1">
-        <v>4.3499999999999996</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -619,10 +623,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -644,7 +648,7 @@
         <v>330</v>
       </c>
       <c r="C12" s="1">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -663,10 +667,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1">
-        <v>86</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -674,10 +678,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -696,7 +700,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.02</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="C17" s="1">
         <v>2.1100000000000001E-2</v>
@@ -707,10 +711,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="C18" s="1">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -718,10 +722,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -732,7 +736,7 @@
         <v>0.6</v>
       </c>
       <c r="C20" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -740,64 +744,75 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C21" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Assets/Resources/Configs/HeroConfig.xlsx
+++ b/Assets/Resources/Configs/HeroConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AA5366-2B48-426B-A48B-56BBAD4A6A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1496298D-E17F-4077-9CBE-A7CCC524EC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,10 @@
   </si>
   <si>
     <t>_attackWindUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_attackSpeedYield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
@@ -763,56 +767,67 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.625</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Assets/Resources/Configs/HeroConfig.xlsx
+++ b/Assets/Resources/Configs/HeroConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1496298D-E17F-4077-9CBE-A7CCC524EC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E31EBB-CB23-4198-AB6C-732AD794CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,30 @@
   </si>
   <si>
     <t>_attackSpeedYield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yasuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WayOfTheWanderer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SteelTempest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindWall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SweepingBlade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastBreath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,19 +535,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.08203125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="20.58203125" style="1"/>
+    <col min="1" max="1" width="26.125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,8 +557,11 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -544,8 +571,11 @@
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -555,8 +585,11 @@
       <c r="C3" s="1">
         <v>645</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -566,8 +599,11 @@
       <c r="C4" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -577,8 +613,11 @@
       <c r="C5" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -588,8 +627,11 @@
       <c r="C6" s="1">
         <v>0.65800000000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -599,8 +641,11 @@
       <c r="C7" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -610,8 +655,11 @@
       <c r="C8" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -621,8 +669,11 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -632,8 +683,11 @@
       <c r="C10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -643,8 +697,11 @@
       <c r="C11" s="1">
         <v>550</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -654,8 +711,11 @@
       <c r="C12" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -665,8 +725,11 @@
       <c r="C13" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -676,8 +739,11 @@
       <c r="C14" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -687,8 +753,11 @@
       <c r="C15" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -698,8 +767,11 @@
       <c r="C16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -709,8 +781,11 @@
       <c r="C17" s="1">
         <v>2.1100000000000001E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -720,8 +795,11 @@
       <c r="C18" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -731,8 +809,11 @@
       <c r="C19" s="1">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -742,8 +823,11 @@
       <c r="C20" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -753,8 +837,11 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -764,8 +851,11 @@
       <c r="C22" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="1">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -775,8 +865,11 @@
       <c r="C23" s="1">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="1">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -786,8 +879,11 @@
       <c r="C24" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -797,8 +893,11 @@
       <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -808,8 +907,11 @@
       <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -819,8 +921,11 @@
       <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -829,6 +934,9 @@
       </c>
       <c r="C28" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/HeroConfig.xlsx
+++ b/Assets/Resources/Configs/HeroConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E31EBB-CB23-4198-AB6C-732AD794CBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9CB0E3-76BD-4C22-9318-4F35159E9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -600,7 +600,7 @@
         <v>300</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/HeroConfig.xlsx
+++ b/Assets/Resources/Configs/HeroConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9CB0E3-76BD-4C22-9318-4F35159E9F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4D71BF-94D5-42C2-BDC8-63FAF25FEC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,30 @@
   </si>
   <si>
     <t>LastBreath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DaredevilImpulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BladeWhirl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WildRush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfernoTrigger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,19 +559,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="20.625" style="1"/>
+    <col min="1" max="1" width="26.08203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="20.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +584,11 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -574,8 +601,11 @@
       <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -588,8 +618,11 @@
       <c r="D3" s="1">
         <v>590</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -602,8 +635,11 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -616,8 +652,11 @@
       <c r="D5" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -630,8 +669,11 @@
       <c r="D6" s="1">
         <v>0.69699999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="1">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -644,8 +686,11 @@
       <c r="D7" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -658,8 +703,11 @@
       <c r="D8" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -672,8 +720,11 @@
       <c r="D9" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="1">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -686,8 +737,11 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -700,8 +754,11 @@
       <c r="D11" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -714,8 +771,11 @@
       <c r="D12" s="1">
         <v>345</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -728,8 +788,11 @@
       <c r="D13" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -742,8 +805,11 @@
       <c r="D14" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -756,8 +822,11 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -770,8 +839,11 @@
       <c r="D16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -784,8 +856,11 @@
       <c r="D17" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -798,8 +873,11 @@
       <c r="D18" s="1">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="1">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -812,8 +890,11 @@
       <c r="D19" s="1">
         <v>2.0499999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -826,8 +907,11 @@
       <c r="D20" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -840,8 +924,11 @@
       <c r="D21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -854,8 +941,11 @@
       <c r="D22" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -868,8 +958,11 @@
       <c r="D23" s="1">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="1">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -882,8 +975,11 @@
       <c r="D24" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -896,8 +992,11 @@
       <c r="D25" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -910,8 +1009,11 @@
       <c r="D26" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -924,8 +1026,11 @@
       <c r="D27" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -937,6 +1042,9 @@
       </c>
       <c r="D28" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
